--- a/posesiones/1485990.xlsx
+++ b/posesiones/1485990.xlsx
@@ -1964,10 +1964,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>19</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>21</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>14</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R20">
         <v>17</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>25</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>12</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R37">
         <v>10</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R39">
         <v>14</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R41">
         <v>8</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>12</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>17</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47">
         <v>16</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4352,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>30</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53">
         <v>19</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4555,7 +4555,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R55">
         <v>16</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>8</v>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4864,7 +4864,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R61">
         <v>11</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R72">
         <v>24</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>5</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R77">
         <v>17</v>
@@ -5699,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R78">
         <v>16</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5799,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R80">
         <v>18</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5902,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R82">
         <v>16</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -6005,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R84">
         <v>13</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>8</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6678,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6775,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R100">
         <v>24</v>
@@ -6825,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6875,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R102">
         <v>23</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6978,7 +6978,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>10</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R106">
         <v>28</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R109">
         <v>21</v>
@@ -7284,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R111">
         <v>23</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R119">
         <v>6</v>
@@ -7769,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R121">
         <v>8</v>
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R123">
         <v>18</v>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>5</v>
@@ -8066,10 +8066,10 @@
         <v>1</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8298,10 +8298,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8351,7 +8351,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R132">
         <v>13</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8454,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R134">
         <v>17</v>
@@ -8507,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R135">
         <v>16</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R142">
         <v>26</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R147">
         <v>36</v>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R149">
         <v>24</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9389,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R153">
         <v>10</v>
@@ -9442,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R157">
         <v>20</v>
@@ -9639,7 +9639,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9924,7 +9924,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R165">
         <v>15</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10077,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R167">
         <v>17</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10180,7 +10180,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R169">
         <v>11</v>
@@ -10227,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10371,7 +10371,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R173">
         <v>23</v>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10471,7 +10471,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R175">
         <v>21</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R177">
         <v>10</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R181">
         <v>26</v>
@@ -10821,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10959,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R186">
         <v>18</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11109,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R188">
         <v>17</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11588,7 +11588,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R198">
         <v>29</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R203">
         <v>31</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11926,7 +11926,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R205">
         <v>31</v>
@@ -11979,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R206">
         <v>14</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R207">
         <v>15</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12135,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R209">
         <v>6</v>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12279,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12420,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12467,7 +12467,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12564,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R218">
         <v>8</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12752,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12846,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R226">
         <v>13</v>
@@ -12996,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R227">
         <v>15</v>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13096,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R229">
         <v>20</v>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R233">
         <v>26</v>
@@ -13346,7 +13346,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R235">
         <v>7</v>
@@ -13449,7 +13449,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13499,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R237">
         <v>5</v>
@@ -13552,7 +13552,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R238">
         <v>15</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13652,7 +13652,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R240">
         <v>17</v>
@@ -13702,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13843,7 +13843,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13896,7 +13896,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R245">
         <v>21</v>
@@ -13946,7 +13946,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13990,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14178,7 +14178,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14272,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14366,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14463,7 +14463,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R257">
         <v>1</v>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14610,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R260">
         <v>6</v>
@@ -14654,10 +14654,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14751,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14845,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14939,7 +14939,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14980,10 +14980,10 @@
         <v>1</v>
       </c>
       <c r="P268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R269">
         <v>9</v>
@@ -15086,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R270">
         <v>0</v>
@@ -15139,7 +15139,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15189,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R272">
         <v>2</v>
@@ -15239,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15286,7 +15286,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15336,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R275">
         <v>24</v>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15486,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R278">
         <v>24</v>
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15636,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15686,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R282">
         <v>17</v>
@@ -15739,7 +15739,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R283">
         <v>25</v>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R285">
         <v>24</v>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15939,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R287">
         <v>21</v>
@@ -15989,7 +15989,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -16036,7 +16036,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16083,7 +16083,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16130,7 +16130,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16180,7 +16180,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R292">
         <v>13</v>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16468,7 +16468,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R298">
         <v>0</v>
@@ -16521,7 +16521,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R299">
         <v>24</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16621,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R301">
         <v>11</v>
@@ -16674,7 +16674,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R302">
         <v>12</v>
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16777,7 +16777,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R304">
         <v>5</v>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16877,7 +16877,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R306">
         <v>11</v>
@@ -16930,7 +16930,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R307">
         <v>11</v>
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17030,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R309">
         <v>18</v>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R311">
         <v>16</v>
@@ -17183,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17421,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R317">
         <v>10</v>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17521,7 +17521,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17615,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17709,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17756,7 +17756,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17900,7 +17900,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R327">
         <v>24</v>
@@ -17953,7 +17953,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18003,7 +18003,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R329">
         <v>12</v>
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R331">
         <v>23</v>
@@ -18156,7 +18156,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R332">
         <v>15</v>
@@ -18206,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18253,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18300,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18394,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18441,7 +18441,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18488,7 +18488,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18538,7 +18538,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R340">
         <v>21</v>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18685,7 +18685,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R343">
         <v>20</v>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18788,7 +18788,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R345">
         <v>17</v>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18932,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18979,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19026,7 +19026,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19073,7 +19073,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19123,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R352">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19314,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19455,7 +19455,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19549,7 +19549,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19596,7 +19596,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19740,7 +19740,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R365">
         <v>25</v>
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19843,7 +19843,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R367">
         <v>12</v>
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20087,7 +20087,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R372">
         <v>7</v>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20184,7 +20184,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20234,7 +20234,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R375">
         <v>15</v>
@@ -20284,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20425,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20475,7 +20475,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R380">
         <v>20</v>
@@ -20528,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R381">
         <v>17</v>
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20625,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20675,7 +20675,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R384">
         <v>18</v>
@@ -20728,7 +20728,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20822,7 +20822,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20869,7 +20869,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20919,7 +20919,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R389">
         <v>11</v>
@@ -20969,7 +20969,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21016,7 +21016,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21066,7 +21066,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R392">
         <v>13</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21166,7 +21166,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21216,7 +21216,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R395">
         <v>26</v>
@@ -21269,7 +21269,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21319,7 +21319,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21375,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R398">
         <v>3</v>
@@ -21419,10 +21419,10 @@
         <v>1</v>
       </c>
       <c r="P399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21469,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21557,10 +21557,10 @@
         <v>1</v>
       </c>
       <c r="P402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21610,7 +21610,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R403">
         <v>12</v>
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21710,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R405">
         <v>19</v>
@@ -21763,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21810,7 +21810,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21857,7 +21857,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21904,7 +21904,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21951,7 +21951,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22001,7 +22001,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R411">
         <v>9</v>
@@ -22054,7 +22054,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R412">
         <v>19</v>
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22154,7 +22154,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R414">
         <v>21</v>
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22395,7 +22395,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R419">
         <v>0</v>
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22498,7 +22498,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R421">
         <v>6</v>
@@ -22548,7 +22548,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22642,7 +22642,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22692,7 +22692,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R425">
         <v>10</v>
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22889,7 +22889,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R429">
         <v>24</v>
@@ -22939,7 +22939,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23080,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23130,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R434">
         <v>13</v>
@@ -23183,7 +23183,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23286,7 +23286,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R437">
         <v>9</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23530,7 +23530,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23580,7 +23580,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R443">
         <v>34</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23677,7 +23677,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23724,7 +23724,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23774,7 +23774,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R447">
         <v>20</v>
@@ -23824,7 +23824,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23868,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23912,7 +23912,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23962,7 +23962,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R451">
         <v>3</v>
@@ -24015,7 +24015,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R452">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24115,7 +24115,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24162,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24262,7 +24262,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R457">
         <v>35</v>
@@ -24312,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24362,7 +24362,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24412,7 +24412,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R460">
         <v>12</v>
@@ -24465,7 +24465,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R461">
         <v>21</v>
@@ -24518,7 +24518,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R462">
         <v>22</v>
@@ -24571,7 +24571,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24762,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24953,7 +24953,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R471">
         <v>14</v>
@@ -25003,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25056,7 +25056,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R473">
         <v>8</v>
@@ -25106,7 +25106,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25341,7 +25341,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25441,7 +25441,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R481">
         <v>24</v>
@@ -25494,7 +25494,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R482">
         <v>10</v>
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25597,7 +25597,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R484">
         <v>14</v>
@@ -25647,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25697,7 +25697,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R486">
         <v>24</v>
@@ -25750,7 +25750,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25800,7 +25800,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R488">
         <v>21</v>
@@ -25850,7 +25850,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25894,7 +25894,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25941,7 +25941,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26038,7 +26038,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R493">
         <v>16</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26138,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R495">
         <v>21</v>
@@ -26188,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26235,7 +26235,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26282,7 +26282,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26329,7 +26329,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26379,7 +26379,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R500">
         <v>17</v>
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26482,7 +26482,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R502">
         <v>18</v>
@@ -26532,7 +26532,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26579,7 +26579,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26626,7 +26626,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26673,7 +26673,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26723,7 +26723,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R507">
         <v>16</v>
@@ -26776,7 +26776,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26826,7 +26826,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R509">
         <v>19</v>
@@ -26879,7 +26879,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26929,7 +26929,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R511">
         <v>24</v>
@@ -26979,7 +26979,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27029,7 +27029,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R513">
         <v>4</v>
@@ -27079,7 +27079,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27129,7 +27129,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27179,7 +27179,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R516">
         <v>9</v>
@@ -27232,7 +27232,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27279,7 +27279,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27326,7 +27326,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27373,7 +27373,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27420,7 +27420,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27517,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R523">
         <v>2</v>
@@ -27564,7 +27564,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27611,7 +27611,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27705,7 +27705,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27802,7 +27802,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R529">
         <v>11</v>
@@ -27852,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27899,7 +27899,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27996,7 +27996,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R533">
         <v>2</v>
@@ -28049,7 +28049,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28099,7 +28099,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R535">
         <v>5</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28196,7 +28196,7 @@
         <v>0</v>
       </c>
       <c r="Q537">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28243,7 +28243,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q539">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="540" spans="1:18">
@@ -28337,7 +28337,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28434,7 +28434,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28481,7 +28481,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28528,7 +28528,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28578,7 +28578,7 @@
         <v>1</v>
       </c>
       <c r="Q545">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R545">
         <v>5</v>
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28672,7 +28672,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28719,7 +28719,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28769,7 +28769,7 @@
         <v>1</v>
       </c>
       <c r="Q549">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R549">
         <v>3</v>
@@ -28822,7 +28822,7 @@
         <v>1</v>
       </c>
       <c r="Q550">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R550">
         <v>1</v>
@@ -28866,10 +28866,10 @@
         <v>1</v>
       </c>
       <c r="P551" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q551">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28910,7 +28910,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
